--- a/findx/Excel/Weapon_武器表.xlsx
+++ b/findx/Excel/Weapon_武器表.xlsx
@@ -43,13 +43,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
       <name val="Calibri"/>
@@ -64,14 +57,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -514,1622 +514,1622 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="str">
+      <c r="A1" s="5" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="5" t="str">
         <v>int</v>
       </c>
-      <c r="C1" s="4" t="str">
+      <c r="C1" s="5" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="4" t="str">
+      <c r="D1" s="5" t="str">
         <v>String</v>
       </c>
-      <c r="E1" s="4" t="str">
+      <c r="E1" s="5" t="str">
         <v>String</v>
       </c>
-      <c r="F1" s="4" t="str">
+      <c r="F1" s="5" t="str">
         <v>Vector3</v>
       </c>
-      <c r="G1" s="4" t="str">
+      <c r="G1" s="5" t="str">
         <v>Vector3</v>
       </c>
-      <c r="H1" s="4" t="str">
+      <c r="H1" s="5" t="str">
         <v>Vector3</v>
       </c>
-      <c r="I1" s="4" t="str">
+      <c r="I1" s="5" t="str">
         <v>int</v>
       </c>
-      <c r="J1" s="5" t="str">
+      <c r="J1" s="4" t="str">
         <v>string</v>
       </c>
-      <c r="K1" s="5" t="str">
+      <c r="K1" s="4" t="str">
         <v>string</v>
       </c>
-      <c r="L1" s="5" t="str">
+      <c r="L1" s="4" t="str">
         <v>string</v>
       </c>
-      <c r="M1" s="5" t="str">
+      <c r="M1" s="4" t="str">
         <v>string</v>
       </c>
-      <c r="N1" s="5" t="str">
+      <c r="N1" s="4" t="str">
         <v>string</v>
       </c>
-      <c r="O1" s="5" t="str">
+      <c r="O1" s="4" t="str">
         <v>int</v>
       </c>
-      <c r="P1" s="5" t="str">
+      <c r="P1" s="4" t="str">
         <v>vector3</v>
       </c>
-      <c r="Q1" s="5" t="str">
+      <c r="Q1" s="4" t="str">
         <v>vector3</v>
       </c>
-      <c r="R1" s="5" t="str">
+      <c r="R1" s="4" t="str">
         <v>string</v>
       </c>
-      <c r="S1" s="5" t="str">
+      <c r="S1" s="4" t="str">
         <v>int[]</v>
       </c>
-      <c r="T1" s="5" t="str">
+      <c r="T1" s="4" t="str">
         <v>int</v>
       </c>
-      <c r="U1" s="5" t="str">
+      <c r="U1" s="4" t="str">
         <v>int</v>
       </c>
-      <c r="V1" s="5" t="str">
+      <c r="V1" s="4" t="str">
         <v>string</v>
       </c>
-      <c r="W1" s="5" t="str">
+      <c r="W1" s="4" t="str">
         <v>vector3</v>
       </c>
-      <c r="X1" s="5" t="str">
+      <c r="X1" s="4" t="str">
         <v>vector3</v>
       </c>
-      <c r="Y1" s="5" t="str">
+      <c r="Y1" s="4" t="str">
         <v>vector3</v>
       </c>
-      <c r="Z1" s="5" t="str">
+      <c r="Z1" s="4" t="str">
         <v>string</v>
       </c>
-      <c r="AA1" s="4" t="str">
+      <c r="AA1" s="5" t="str">
         <v>String</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="str">
+      <c r="A2" s="5" t="str">
         <v>id</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="5" t="str">
         <v>IsIAA</v>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="5" t="str">
         <v>WeaponName</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="5" t="str">
         <v>WeaponGuid</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="5" t="str">
         <v>WeaponIcon</v>
       </c>
-      <c r="F2" s="4" t="str">
+      <c r="F2" s="5" t="str">
         <v>offset</v>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="G2" s="5" t="str">
         <v>rotation</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="H2" s="5" t="str">
         <v>scale</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="5" t="str">
         <v>AttackType</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J2" s="4" t="str">
         <v>WeaponCD</v>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="K2" s="4" t="str">
         <v>AttackAnimationId</v>
       </c>
-      <c r="L2" s="5" t="str">
+      <c r="L2" s="4" t="str">
         <v>AttackTime</v>
       </c>
-      <c r="M2" s="5" t="str">
+      <c r="M2" s="4" t="str">
         <v>AttackDelayTime</v>
       </c>
-      <c r="N2" s="5" t="str">
+      <c r="N2" s="4" t="str">
         <v>AttackEffectId</v>
       </c>
-      <c r="O2" s="5" t="str">
+      <c r="O2" s="4" t="str">
         <v>EffectOffset</v>
       </c>
-      <c r="P2" s="5" t="str">
+      <c r="P2" s="4" t="str">
         <v>EffectRot</v>
       </c>
-      <c r="Q2" s="5" t="str">
+      <c r="Q2" s="4" t="str">
         <v>EffectScale</v>
       </c>
-      <c r="R2" s="5" t="str">
+      <c r="R2" s="4" t="str">
         <v>AttackSound</v>
       </c>
-      <c r="S2" s="5" t="str">
+      <c r="S2" s="4" t="str">
         <v>AttackRange</v>
       </c>
-      <c r="T2" s="5" t="str">
+      <c r="T2" s="4" t="str">
         <v>ImpulseValue</v>
       </c>
-      <c r="U2" s="5" t="str">
+      <c r="U2" s="4" t="str">
         <v>HurtValue</v>
       </c>
-      <c r="V2" s="5" t="str">
+      <c r="V2" s="4" t="str">
         <v>HitEffect</v>
       </c>
-      <c r="W2" s="5" t="str">
+      <c r="W2" s="4" t="str">
         <v>HitEffectOffset</v>
       </c>
-      <c r="X2" s="5" t="str">
+      <c r="X2" s="4" t="str">
         <v>HitEffectRot</v>
       </c>
-      <c r="Y2" s="5" t="str">
+      <c r="Y2" s="4" t="str">
         <v>HitEffectScale</v>
       </c>
-      <c r="Z2" s="5" t="str">
+      <c r="Z2" s="4" t="str">
         <v>HitSound</v>
       </c>
-      <c r="AA2" s="4" t="str">
+      <c r="AA2" s="5" t="str">
         <v>Annotation</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>唯一ID</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>武器类型
 0：直接获得
 1：看广告获取</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>武器的名字</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="5" t="str">
         <v>模型Guid</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="5" t="str">
         <v>对应的Icon</v>
       </c>
-      <c r="F3" s="4" t="str">
+      <c r="F3" s="5" t="str">
         <v>偏移</v>
       </c>
-      <c r="G3" s="4" t="str">
+      <c r="G3" s="5" t="str">
         <v>旋转</v>
       </c>
-      <c r="H3" s="4" t="str">
+      <c r="H3" s="5" t="str">
         <v>缩放</v>
       </c>
-      <c r="I3" s="4" t="str">
+      <c r="I3" s="5" t="str">
         <v>攻击类型
 1：矩形
 2：圆形
 3：圆柱形</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="J3" s="4" t="str">
         <v>武器CD</v>
       </c>
-      <c r="K3" s="5" t="str">
+      <c r="K3" s="4" t="str">
         <v>攻击动画</v>
       </c>
-      <c r="L3" s="5" t="str">
+      <c r="L3" s="4" t="str">
         <v>攻击时间</v>
       </c>
-      <c r="M3" s="5" t="str">
+      <c r="M3" s="4" t="str">
         <v>攻击延迟时间</v>
       </c>
-      <c r="N3" s="5" t="str">
+      <c r="N3" s="4" t="str">
         <v>攻击特效</v>
       </c>
-      <c r="O3" s="5" t="str">
+      <c r="O3" s="4" t="str">
         <v>攻击特效偏移</v>
       </c>
-      <c r="P3" s="5" t="str">
+      <c r="P3" s="4" t="str">
         <v>攻击特效旋转</v>
       </c>
-      <c r="Q3" s="5" t="str">
+      <c r="Q3" s="4" t="str">
         <v>攻击特效缩放</v>
       </c>
-      <c r="R3" s="5" t="str">
+      <c r="R3" s="4" t="str">
         <v>攻击音效</v>
       </c>
-      <c r="S3" s="5" t="str">
+      <c r="S3" s="4" t="str">
         <v>攻击范围
 1:矩形[长宽高]
 2:圆形[向前向上半径]
 3:圆柱形[向前半径高度]</v>
       </c>
-      <c r="T3" s="5" t="str">
+      <c r="T3" s="4" t="str">
         <v>冲量大小</v>
       </c>
-      <c r="U3" s="5" t="str">
+      <c r="U3" s="4" t="str">
         <v>伤害</v>
       </c>
-      <c r="V3" s="5" t="str">
+      <c r="V3" s="4" t="str">
         <v>受击特效</v>
       </c>
-      <c r="W3" s="5" t="str">
+      <c r="W3" s="4" t="str">
         <v>受击特效偏移</v>
       </c>
-      <c r="X3" s="5" t="str">
+      <c r="X3" s="4" t="str">
         <v>受击特效旋转</v>
       </c>
-      <c r="Y3" s="5" t="str">
+      <c r="Y3" s="4" t="str">
         <v>受击特效缩放</v>
       </c>
-      <c r="Z3" s="5" t="str">
+      <c r="Z3" s="4" t="str">
         <v>受击音效</v>
       </c>
-      <c r="AA3" s="4" t="str">
+      <c r="AA3" s="5" t="str">
         <v>注释</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>挥拳</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
         <v>37632</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
         <v>1.8</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>84912</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>1.8</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>0.6</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>135894</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
         <v>80</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="2" t="str">
         <v>0|0|-90</v>
       </c>
-      <c r="Q5" s="1" t="str">
+      <c r="Q5" s="2" t="str">
         <v>0.5|0.3|0.5</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="2">
         <v>47870</v>
       </c>
-      <c r="S5" s="1" t="str">
+      <c r="S5" s="2" t="str">
         <v>110|50|50</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="2">
         <v>1800</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="2">
         <v>18</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="2">
         <v>107533</v>
       </c>
-      <c r="W5" s="1" t="str">
+      <c r="W5" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X5" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y5" s="1" t="str">
+      <c r="X5" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y5" s="2" t="str">
         <v>3|3|3</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="2">
         <v>47418</v>
       </c>
-      <c r="AA5" s="1" t="str">
+      <c r="AA5" s="2" t="str">
         <v>空手</v>
       </c>
       <c r="AB5" s="3"/>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="str">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="str">
         <v>海盗刀</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>122181</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>131907</v>
       </c>
-      <c r="F6" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H6" s="2" t="str">
+      <c r="F6" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H6" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>1.3</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>96578</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>1.3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>0.2</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>84942</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Q6" s="1" t="str">
+      <c r="P6" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q6" s="2" t="str">
         <v>0.8|0.8|0.8</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="2">
         <v>47421</v>
       </c>
-      <c r="S6" s="1" t="str">
+      <c r="S6" s="2" t="str">
         <v>0|0|135</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="2">
         <v>1300</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="2">
         <v>20</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="2">
         <v>130641</v>
       </c>
-      <c r="W6" s="1" t="str">
+      <c r="W6" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X6" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y6" s="1" t="str">
+      <c r="X6" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y6" s="2" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="2">
         <v>47414</v>
       </c>
-      <c r="AA6" s="1" t="str">
+      <c r="AA6" s="2" t="str">
         <v>旋转</v>
       </c>
       <c r="AB6" s="3"/>
     </row>
     <row customHeight="true" ht="19" r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="str">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="str">
         <v>翡翠镰刀</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>103079</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>150630</v>
       </c>
-      <c r="F7" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H7" s="2" t="str">
+      <c r="F7" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H7" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <v>1.8</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>29718</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>1.8</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>0.9</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <v>84931</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="2">
         <v>20</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="P7" s="2" t="str">
         <v>90|0|0</v>
       </c>
-      <c r="Q7" s="1" t="str">
+      <c r="Q7" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="2">
         <v>47421</v>
       </c>
-      <c r="S7" s="1" t="str">
+      <c r="S7" s="2" t="str">
         <v>160|20|150</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="2">
         <v>1800</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="2">
         <v>38</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="2">
         <v>150927</v>
       </c>
-      <c r="W7" s="1" t="str">
+      <c r="W7" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X7" s="1" t="str">
+      <c r="X7" s="2" t="str">
         <v>0|90|0</v>
       </c>
-      <c r="Y7" s="1" t="str">
+      <c r="Y7" s="2" t="str">
         <v>3|3|3</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="2">
         <v>47414</v>
       </c>
-      <c r="AA7" s="1" t="str">
+      <c r="AA7" s="2" t="str">
         <v>单手冷兵器跳跃攻击</v>
       </c>
       <c r="AB7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="str">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="str">
         <v>屠龙剑</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>103077</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>150563</v>
       </c>
-      <c r="F8" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H8" s="2" t="str">
+      <c r="F8" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H8" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
         <v>1.5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>29723</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>1.5</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>0.5</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>84949</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
         <v>20</v>
       </c>
-      <c r="P8" s="1" t="str">
+      <c r="P8" s="2" t="str">
         <v>-95|0|0</v>
       </c>
-      <c r="Q8" s="1" t="str">
+      <c r="Q8" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="2">
         <v>47421</v>
       </c>
-      <c r="S8" s="1" t="str">
+      <c r="S8" s="2" t="str">
         <v>160|20|150</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="2">
         <v>1500</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="2">
         <v>32</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="2">
         <v>150929</v>
       </c>
-      <c r="W8" s="1" t="str">
+      <c r="W8" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X8" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y8" s="1" t="str">
+      <c r="X8" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y8" s="2" t="str">
         <v>3|3|3</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="2">
         <v>47414</v>
       </c>
-      <c r="AA8" s="1" t="str">
+      <c r="AA8" s="2" t="str">
         <v>单手冷兵器提砍</v>
       </c>
       <c r="AB8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="str">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="str">
         <v>青虹剑</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>122952</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>150579</v>
       </c>
-      <c r="F9" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H9" s="2" t="str">
+      <c r="F9" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H9" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
         <v>1.9</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>29747</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>1.9</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>0.5</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="2">
         <v>84956</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="2">
         <v>20</v>
       </c>
-      <c r="P9" s="1" t="str">
+      <c r="P9" s="2" t="str">
         <v>135|0|0</v>
       </c>
-      <c r="Q9" s="1" t="str">
+      <c r="Q9" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="2">
         <v>47421</v>
       </c>
-      <c r="S9" s="1" t="str">
+      <c r="S9" s="2" t="str">
         <v>180|180|50</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="2">
         <v>1900</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="2">
         <v>40</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="2">
         <v>107541</v>
       </c>
-      <c r="W9" s="1" t="str">
+      <c r="W9" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X9" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y9" s="1" t="str">
+      <c r="X9" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y9" s="2" t="str">
         <v>5|5|5</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="2">
         <v>47414</v>
       </c>
-      <c r="AA9" s="1" t="str">
+      <c r="AA9" s="2" t="str">
         <v>单手持刀挥砍</v>
       </c>
       <c r="AB9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="str">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="str">
         <v>龙泉剑</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>31728</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>150578</v>
       </c>
-      <c r="F10" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H10" s="2" t="str">
+      <c r="F10" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H10" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <v>1.5</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>29764</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>1.5</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>0.6</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="2">
         <v>84932</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="2">
         <v>20</v>
       </c>
-      <c r="P10" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Q10" s="1" t="str">
+      <c r="P10" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q10" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="2">
         <v>47421</v>
       </c>
-      <c r="S10" s="1" t="str">
+      <c r="S10" s="2" t="str">
         <v>180|180|20</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="2">
         <v>1500</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="2">
         <v>30</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="2">
         <v>150930</v>
       </c>
-      <c r="W10" s="1" t="str">
+      <c r="W10" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X10" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y10" s="1" t="str">
+      <c r="X10" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y10" s="2" t="str">
         <v>5|5|5</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="2">
         <v>47414</v>
       </c>
-      <c r="AA10" s="1" t="str">
+      <c r="AA10" s="2" t="str">
         <v>单手冷武器360°砍（特效是180°）</v>
       </c>
       <c r="AB10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="str">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="str">
         <v>紫电剑</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>103064</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>150604</v>
       </c>
-      <c r="F11" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H11" s="4" t="str">
+      <c r="F11" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H11" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
         <v>1.55</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>29767</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>1.55</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>0.7</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>105211</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>20</v>
       </c>
-      <c r="P11" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Q11" s="5" t="str">
+      <c r="P11" s="4" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q11" s="4" t="str">
         <v>0.5|0.5|0.5</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <v>47421</v>
       </c>
-      <c r="S11" s="5" t="str">
+      <c r="S11" s="4" t="str">
         <v>230|50|50</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="4">
         <v>1550</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="4">
         <v>31</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="4">
         <v>7750</v>
       </c>
-      <c r="W11" s="5" t="str">
+      <c r="W11" s="4" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X11" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y11" s="5" t="str">
+      <c r="X11" s="4" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y11" s="4" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Z11" s="4">
         <v>47414</v>
       </c>
-      <c r="AA11" s="5" t="str">
+      <c r="AA11" s="4" t="str">
         <v>单手冷兵器刺剑</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="str">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="str">
         <v>灵犀圣剑</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>122959</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>150562</v>
       </c>
-      <c r="F12" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G12" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H12" s="2" t="str">
+      <c r="F12" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H12" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>2.9</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>85957</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>2.9</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
         <v>0.9</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="2">
         <v>120065</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Q12" s="1" t="str">
+      <c r="P12" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q12" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="2">
         <v>47421</v>
       </c>
-      <c r="S12" s="1" t="str">
+      <c r="S12" s="2" t="str">
         <v>0|0|150</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="2">
         <v>2900</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="2">
         <v>58</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="2">
         <v>150919</v>
       </c>
-      <c r="W12" s="1" t="str">
+      <c r="W12" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X12" s="1" t="str">
+      <c r="X12" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="Y12" s="1" t="str">
+      <c r="Y12" s="2" t="str">
         <v>3|3|5</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="2">
         <v>47414</v>
       </c>
-      <c r="AA12" s="1" t="str">
+      <c r="AA12" s="2" t="str">
         <v>扫腿平砍</v>
       </c>
       <c r="AB12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="str">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="str">
         <v>白金剑</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>29043</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>150552</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H13" s="2" t="str">
+      <c r="F13" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H13" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>2.15</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <v>115466</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <v>2.15</v>
       </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
         <v>123287</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="2">
         <v>120</v>
       </c>
-      <c r="P13" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Q13" s="1" t="str">
+      <c r="P13" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q13" s="2" t="str">
         <v>0.5|0.5|0.5</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="2">
         <v>47421</v>
       </c>
-      <c r="S13" s="1" t="str">
+      <c r="S13" s="2" t="str">
         <v>130|100|50</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="2">
         <v>2150</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="2">
         <v>43</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="2">
         <v>151737</v>
       </c>
-      <c r="W13" s="1" t="str">
+      <c r="W13" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X13" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y13" s="1" t="str">
+      <c r="X13" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y13" s="2" t="str">
         <v>3|3|3</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13" s="2">
         <v>47414</v>
       </c>
-      <c r="AA13" s="1" t="str">
+      <c r="AA13" s="2" t="str">
         <v>飞天挥砍</v>
       </c>
       <c r="AB13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="str">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="str">
         <v>终极冰环剑</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>31734</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>150577</v>
       </c>
-      <c r="F14" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H14" s="2" t="str">
+      <c r="F14" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H14" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>2</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <v>117376</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
         <v>2</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="2">
         <v>0.5</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="2">
         <v>116459</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="P14" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Q14" s="1" t="str">
+      <c r="P14" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q14" s="2" t="str">
         <v>0.6|0.6|0.6</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="2">
         <v>47421</v>
       </c>
-      <c r="S14" s="1" t="str">
+      <c r="S14" s="2" t="str">
         <v>0|0|120</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="2">
         <v>200</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="2">
         <v>40</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="2">
         <v>151739</v>
       </c>
-      <c r="W14" s="1" t="str">
+      <c r="W14" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X14" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y14" s="1" t="str">
+      <c r="X14" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y14" s="2" t="str">
         <v>3|3|3</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="2">
         <v>47414</v>
       </c>
-      <c r="AA14" s="1" t="str">
+      <c r="AA14" s="2" t="str">
         <v>二连挥剑</v>
       </c>
       <c r="AB14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="str">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="str">
         <v>紫魔剑</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>103061</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>150591</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H15" s="2" t="str">
+      <c r="F15" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H15" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
         <v>2.4</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <v>117382</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
         <v>2.4</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <v>0.5</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="2">
         <v>123286</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="2">
         <v>20</v>
       </c>
-      <c r="P15" s="1" t="str">
+      <c r="P15" s="2" t="str">
         <v>0|180|-90</v>
       </c>
-      <c r="Q15" s="1" t="str">
+      <c r="Q15" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="2">
         <v>47421</v>
       </c>
-      <c r="S15" s="1" t="str">
+      <c r="S15" s="2" t="str">
         <v>130|150|20</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="2">
         <v>2400</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="2">
         <v>48</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="2">
         <v>151741</v>
       </c>
-      <c r="W15" s="1" t="str">
+      <c r="W15" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X15" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y15" s="1" t="str">
+      <c r="X15" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y15" s="2" t="str">
         <v>3|3|3</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="2">
         <v>47414</v>
       </c>
-      <c r="AA15" s="1" t="str">
+      <c r="AA15" s="2" t="str">
         <v>蹲下扫砍</v>
       </c>
       <c r="AB15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="str">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="str">
         <v>天使剑</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>122955</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>150567</v>
       </c>
-      <c r="F16" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H16" s="2" t="str">
+      <c r="F16" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H16" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>3</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>2.9</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>162129</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <v>2.9</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <v>0.8</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="2">
         <v>101410</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="2">
         <v>150</v>
       </c>
-      <c r="P16" s="1" t="str">
+      <c r="P16" s="2" t="str">
         <v>0|45|0</v>
       </c>
-      <c r="Q16" s="1" t="str">
+      <c r="Q16" s="2" t="str">
         <v>0.5|0.5|0.5</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="2">
         <v>47421</v>
       </c>
-      <c r="S16" s="1" t="str">
+      <c r="S16" s="2" t="str">
         <v>150|90|50</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="2">
         <v>2900</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="2">
         <v>58</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="2">
         <v>150932</v>
       </c>
-      <c r="W16" s="1" t="str">
+      <c r="W16" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X16" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y16" s="1" t="str">
+      <c r="X16" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y16" s="2" t="str">
         <v>3|3|3</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="2">
         <v>47414</v>
       </c>
-      <c r="AA16" s="1" t="str">
+      <c r="AA16" s="2" t="str">
         <v>法阵</v>
       </c>
       <c r="AB16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="str">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="str">
         <v>恶魔剑</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>122956</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>150613</v>
       </c>
-      <c r="F17" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H17" s="2" t="str">
+      <c r="F17" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H17" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>4.7</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <v>162136</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="2">
         <v>4.7</v>
       </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
         <v>101409</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="2">
         <v>150</v>
       </c>
-      <c r="P17" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Q17" s="1" t="str">
+      <c r="P17" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q17" s="2" t="str">
         <v>0.5|0.5|0.5</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="2">
         <v>47421</v>
       </c>
-      <c r="S17" s="1" t="str">
+      <c r="S17" s="2" t="str">
         <v>150|0|200</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="2">
         <v>4700</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="2">
         <v>94</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="2">
         <v>7750</v>
       </c>
-      <c r="W17" s="1" t="str">
+      <c r="W17" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X17" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y17" s="1" t="str">
+      <c r="X17" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y17" s="2" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="2">
         <v>47414</v>
       </c>
-      <c r="AA17" s="1" t="str">
+      <c r="AA17" s="2" t="str">
         <v>瞬移多砍</v>
       </c>
       <c r="AB17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="str">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="str">
         <v>紫虎剑</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>103069</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>150606</v>
       </c>
-      <c r="F18" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G18" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H18" s="2" t="str">
+      <c r="F18" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H18" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>3</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>3.3</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <v>122491</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
         <v>3.3</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="2">
         <v>1.1</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="2">
         <v>101411</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="2">
         <v>150</v>
       </c>
-      <c r="P18" s="1" t="str">
+      <c r="P18" s="2" t="str">
         <v>0|60|0</v>
       </c>
-      <c r="Q18" s="1" t="str">
+      <c r="Q18" s="2" t="str">
         <v>0.6|0.6|0.6</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="2">
         <v>47421</v>
       </c>
-      <c r="S18" s="1" t="str">
+      <c r="S18" s="2" t="str">
         <v>150|100|50</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="2">
         <v>3300</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="2">
         <v>66</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="2">
         <v>151736</v>
       </c>
-      <c r="W18" s="1" t="str">
+      <c r="W18" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X18" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y18" s="1" t="str">
+      <c r="X18" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y18" s="2" t="str">
         <v>5|5|5</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z18" s="2">
         <v>47414</v>
       </c>
-      <c r="AA18" s="1" t="str">
+      <c r="AA18" s="2" t="str">
         <v>双砍</v>
       </c>
       <c r="AB18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="str">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="str">
         <v>大砍刀</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>122961</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>150631</v>
       </c>
-      <c r="F19" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G19" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H19" s="2" t="str">
+      <c r="F19" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H19" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
         <v>2.1</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <v>85945</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="2">
         <v>2.1</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="2">
         <v>0.6</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="2">
         <v>31260</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="2">
         <v>50</v>
       </c>
-      <c r="P19" s="1" t="str">
+      <c r="P19" s="2" t="str">
         <v>0|0|-90</v>
       </c>
-      <c r="Q19" s="1" t="str">
+      <c r="Q19" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="2">
         <v>47421</v>
       </c>
-      <c r="S19" s="1" t="str">
+      <c r="S19" s="2" t="str">
         <v>130|130|20</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="2">
         <v>2100</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="2">
         <v>42</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="2">
         <v>150933</v>
       </c>
-      <c r="W19" s="1" t="str">
+      <c r="W19" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X19" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y19" s="1" t="str">
+      <c r="X19" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y19" s="2" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19" s="2">
         <v>47414</v>
       </c>
-      <c r="AA19" s="1" t="str">
+      <c r="AA19" s="2" t="str">
         <v>横挥砍</v>
       </c>
       <c r="AB19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="str">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="str">
         <v>泣血刀</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>122179</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>150616</v>
       </c>
-      <c r="F20" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G20" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H20" s="2" t="str">
+      <c r="F20" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H20" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>1.3</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <v>96578</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="2">
         <v>1.3</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="2">
         <v>0.2</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="2">
         <v>84942</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Q20" s="1" t="str">
+      <c r="P20" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q20" s="2" t="str">
         <v>0.8|0.8|0.8</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="2">
         <v>47421</v>
       </c>
-      <c r="S20" s="1" t="str">
+      <c r="S20" s="2" t="str">
         <v>0|0|135</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="2">
         <v>1300</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="2">
         <v>26</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="2">
         <v>130641</v>
       </c>
-      <c r="W20" s="1" t="str">
+      <c r="W20" s="2" t="str">
         <v>0|0|100</v>
       </c>
-      <c r="X20" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="Y20" s="1" t="str">
+      <c r="X20" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Y20" s="2" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20" s="2">
         <v>47414</v>
       </c>
-      <c r="AA20" s="1" t="str">
+      <c r="AA20" s="2" t="str">
         <v>旋转</v>
       </c>
       <c r="AB20" s="3"/>
